--- a/outcome/appendix/forecast/Gonorrhea.xlsx
+++ b/outcome/appendix/forecast/Gonorrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>9447.0163578681</v>
+        <v>9454.36419528107</v>
       </c>
       <c r="C2" t="n">
-        <v>8675.0021803161</v>
+        <v>8424.1989243842</v>
       </c>
       <c r="D2" t="n">
-        <v>8292.61989255437</v>
+        <v>8057.70194049993</v>
       </c>
       <c r="E2" t="n">
-        <v>10289.0284196396</v>
+        <v>10289.0303351114</v>
       </c>
       <c r="F2" t="n">
-        <v>10765.2802726924</v>
+        <v>10765.2817891636</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>8254</v>
       </c>
       <c r="I2" t="n">
-        <v>1193.0163578681</v>
+        <v>1200.36419528107</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>7349.95277257702</v>
+        <v>7655.45522928384</v>
       </c>
       <c r="C3" t="n">
-        <v>6740.96748907019</v>
+        <v>6618.58338406613</v>
       </c>
       <c r="D3" t="n">
-        <v>6439.62600096534</v>
+        <v>6332.17451619877</v>
       </c>
       <c r="E3" t="n">
-        <v>8014.99188702892</v>
+        <v>9348.86412401337</v>
       </c>
       <c r="F3" t="n">
-        <v>8391.50687796846</v>
+        <v>9631.86234335385</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3524</v>
       </c>
       <c r="I3" t="n">
-        <v>3825.95277257702</v>
+        <v>4131.45522928384</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>9244.93941735814</v>
+        <v>9172.88596556574</v>
       </c>
       <c r="C4" t="n">
-        <v>8399.96185636583</v>
+        <v>8236.46688053189</v>
       </c>
       <c r="D4" t="n">
-        <v>7984.89698912598</v>
+        <v>7820.24062554174</v>
       </c>
       <c r="E4" t="n">
-        <v>10176.5339175796</v>
+        <v>10176.5345270273</v>
       </c>
       <c r="F4" t="n">
-        <v>10707.8024182732</v>
+        <v>10707.8027662144</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4661</v>
       </c>
       <c r="I4" t="n">
-        <v>4583.93941735814</v>
+        <v>4511.88596556574</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9346.04591363579</v>
+        <v>9291.57037504997</v>
       </c>
       <c r="C5" t="n">
-        <v>8375.00312197574</v>
+        <v>8294.54577584362</v>
       </c>
       <c r="D5" t="n">
-        <v>7903.16126720067</v>
+        <v>7846.90439691392</v>
       </c>
       <c r="E5" t="n">
-        <v>10431.8498666835</v>
+        <v>10431.8510664036</v>
       </c>
       <c r="F5" t="n">
-        <v>11057.7462352134</v>
+        <v>11057.747473867</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6267</v>
       </c>
       <c r="I5" t="n">
-        <v>3079.04591363579</v>
+        <v>3024.57037504997</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>10125.5167739653</v>
+        <v>9749.30098048124</v>
       </c>
       <c r="C6" t="n">
-        <v>8961.3091105582</v>
+        <v>8040.54202338485</v>
       </c>
       <c r="D6" t="n">
-        <v>8401.09692303625</v>
+        <v>7697.38744020562</v>
       </c>
       <c r="E6" t="n">
-        <v>11443.9284114397</v>
+        <v>11443.9288949382</v>
       </c>
       <c r="F6" t="n">
-        <v>12211.2696702592</v>
+        <v>12211.2713598283</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>8104</v>
       </c>
       <c r="I6" t="n">
-        <v>2021.51677396528</v>
+        <v>1645.30098048124</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>10147.5770503104</v>
+        <v>9763.4001976563</v>
       </c>
       <c r="C7" t="n">
-        <v>8881.14347349856</v>
+        <v>7658.29946918439</v>
       </c>
       <c r="D7" t="n">
-        <v>8277.05481164691</v>
+        <v>7272.55812190854</v>
       </c>
       <c r="E7" t="n">
-        <v>11598.1706414188</v>
+        <v>11598.1704708254</v>
       </c>
       <c r="F7" t="n">
-        <v>12449.775588459</v>
+        <v>12449.77708076</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>9292</v>
       </c>
       <c r="I7" t="n">
-        <v>855.577050310358</v>
+        <v>471.400197656301</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>11033.6508233163</v>
+        <v>10391.5084511433</v>
       </c>
       <c r="C8" t="n">
-        <v>9555.78665265709</v>
+        <v>7558.60496752744</v>
       </c>
       <c r="D8" t="n">
-        <v>8856.63297906238</v>
+        <v>7260.50845840305</v>
       </c>
       <c r="E8" t="n">
-        <v>12744.6408838032</v>
+        <v>12744.6446049003</v>
       </c>
       <c r="F8" t="n">
-        <v>13757.3159568136</v>
+        <v>13757.3245137163</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>10724</v>
       </c>
       <c r="I8" t="n">
-        <v>309.650823316284</v>
+        <v>-332.491548856724</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>11130.9424845822</v>
+        <v>10377.9194913249</v>
       </c>
       <c r="C9" t="n">
-        <v>9547.60517334202</v>
+        <v>7565.39795490856</v>
       </c>
       <c r="D9" t="n">
-        <v>8804.20380296641</v>
+        <v>7276.58441352386</v>
       </c>
       <c r="E9" t="n">
-        <v>12982.1486846982</v>
+        <v>12982.1537713733</v>
       </c>
       <c r="F9" t="n">
-        <v>14086.0149832119</v>
+        <v>14086.0262262865</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>10724</v>
       </c>
       <c r="I9" t="n">
-        <v>406.942484582174</v>
+        <v>-346.080508675102</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>10652.6198831753</v>
+        <v>10058.2452638703</v>
       </c>
       <c r="C10" t="n">
-        <v>9056.17284228237</v>
+        <v>7631.10011017731</v>
       </c>
       <c r="D10" t="n">
-        <v>8311.85529977139</v>
+        <v>7251.07496707537</v>
       </c>
       <c r="E10" t="n">
-        <v>12536.2180967894</v>
+        <v>12890.4630032003</v>
       </c>
       <c r="F10" t="n">
-        <v>13667.1794176715</v>
+        <v>13696.4650875095</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>11643</v>
       </c>
       <c r="I10" t="n">
-        <v>-990.380116824666</v>
+        <v>-1584.75473612969</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>10282.188275085</v>
+        <v>9722.69713209603</v>
       </c>
       <c r="C11" t="n">
-        <v>8667.67180770039</v>
+        <v>7729.40596074771</v>
       </c>
       <c r="D11" t="n">
-        <v>7919.91932303781</v>
+        <v>7254.58839422416</v>
       </c>
       <c r="E11" t="n">
-        <v>12203.6081502049</v>
+        <v>12687.3842303252</v>
       </c>
       <c r="F11" t="n">
-        <v>13364.8475162173</v>
+        <v>13542.6564395908</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>10551</v>
       </c>
       <c r="I11" t="n">
-        <v>-268.811724914998</v>
+        <v>-828.302867903967</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>10580.3182290904</v>
+        <v>10012.5274985325</v>
       </c>
       <c r="C12" t="n">
-        <v>8845.92079309364</v>
+        <v>8109.38522981361</v>
       </c>
       <c r="D12" t="n">
-        <v>8047.83095305502</v>
+        <v>7592.11711883803</v>
       </c>
       <c r="E12" t="n">
-        <v>12661.8078886904</v>
+        <v>12661.812902159</v>
       </c>
       <c r="F12" t="n">
-        <v>13927.816124019</v>
+        <v>13927.8277037301</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>11260</v>
       </c>
       <c r="I12" t="n">
-        <v>-679.681770909554</v>
+        <v>-1247.47250146751</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>10720.0603601775</v>
+        <v>10263.5667522061</v>
       </c>
       <c r="C13" t="n">
-        <v>8893.02151251519</v>
+        <v>8371.3364380141</v>
       </c>
       <c r="D13" t="n">
-        <v>8057.45838829546</v>
+        <v>7831.35382582377</v>
       </c>
       <c r="E13" t="n">
-        <v>12930.2813110487</v>
+        <v>13024.3268382903</v>
       </c>
       <c r="F13" t="n">
-        <v>14282.7292435757</v>
+        <v>14282.7427676855</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>11691</v>
       </c>
       <c r="I13" t="n">
-        <v>-970.939639822514</v>
+        <v>-1427.43324779391</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9395.38109621036</v>
+        <v>9146.37625490441</v>
       </c>
       <c r="C14" t="n">
-        <v>7710.83727740097</v>
+        <v>7647.99698603789</v>
       </c>
       <c r="D14" t="n">
-        <v>6946.93571804048</v>
+        <v>6946.93372255698</v>
       </c>
       <c r="E14" t="n">
-        <v>11455.6902753334</v>
+        <v>13379.5088093685</v>
       </c>
       <c r="F14" t="n">
-        <v>12726.9161531143</v>
+        <v>14585.2233238247</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>10284</v>
       </c>
       <c r="I14" t="n">
-        <v>-888.618903789642</v>
+        <v>-1137.62374509559</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>7303.98574835236</v>
+        <v>7579.66895898759</v>
       </c>
       <c r="C15" t="n">
-        <v>5953.94747988386</v>
+        <v>5953.94019334149</v>
       </c>
       <c r="D15" t="n">
-        <v>5344.99808456734</v>
+        <v>5344.98070100889</v>
       </c>
       <c r="E15" t="n">
-        <v>8966.6326319835</v>
+        <v>13600.8659605593</v>
       </c>
       <c r="F15" t="n">
-        <v>9997.88160797829</v>
+        <v>14649.0655152772</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>7650</v>
       </c>
       <c r="I15" t="n">
-        <v>-346.014251647635</v>
+        <v>-70.3310410124059</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>9178.58223963888</v>
+        <v>8948.6555977941</v>
       </c>
       <c r="C16" t="n">
-        <v>7414.28144509086</v>
+        <v>7292.85291372093</v>
       </c>
       <c r="D16" t="n">
-        <v>6624.16693594592</v>
+        <v>6624.16141769714</v>
       </c>
       <c r="E16" t="n">
-        <v>11371.6993092393</v>
+        <v>13496.1446891613</v>
       </c>
       <c r="F16" t="n">
-        <v>12741.5641529328</v>
+        <v>14605.1263595337</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>10878</v>
       </c>
       <c r="I16" t="n">
-        <v>-1699.41776036112</v>
+        <v>-1929.3444022059</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>9278.95046272189</v>
+        <v>8915.92536051778</v>
       </c>
       <c r="C17" t="n">
-        <v>7431.85752720731</v>
+        <v>7153.61400833586</v>
       </c>
       <c r="D17" t="n">
-        <v>6610.20306602581</v>
+        <v>6610.19751946045</v>
       </c>
       <c r="E17" t="n">
-        <v>11595.0206090798</v>
+        <v>12650.1477534439</v>
       </c>
       <c r="F17" t="n">
-        <v>13051.2201617933</v>
+        <v>14191.5492522193</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>10874</v>
       </c>
       <c r="I17" t="n">
-        <v>-1595.04953727811</v>
+        <v>-1958.07463948222</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>10052.7251653876</v>
+        <v>9434.19193209441</v>
       </c>
       <c r="C18" t="n">
-        <v>7983.67056233708</v>
+        <v>7058.11116009754</v>
       </c>
       <c r="D18" t="n">
-        <v>7069.4187195039</v>
+        <v>6623.74460214312</v>
       </c>
       <c r="E18" t="n">
-        <v>12669.6651092442</v>
+        <v>12669.6720197785</v>
       </c>
       <c r="F18" t="n">
-        <v>14325.8302733024</v>
+        <v>14325.8475418347</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>10773</v>
       </c>
       <c r="I18" t="n">
-        <v>-720.274834612388</v>
+        <v>-1338.80806790559</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>10074.624118606</v>
+        <v>9339.87006075321</v>
       </c>
       <c r="C19" t="n">
-        <v>7938.15268306684</v>
+        <v>6883.62870562329</v>
       </c>
       <c r="D19" t="n">
-        <v>6999.98258459195</v>
+        <v>6441.3649560767</v>
       </c>
       <c r="E19" t="n">
-        <v>12798.7135825488</v>
+        <v>12798.7201075801</v>
       </c>
       <c r="F19" t="n">
-        <v>14533.2245716784</v>
+        <v>14533.2426682393</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>10950</v>
       </c>
       <c r="I19" t="n">
-        <v>-875.375881393962</v>
+        <v>-1610.12993924679</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>10954.21332359</v>
+        <v>9906.42532713228</v>
       </c>
       <c r="C20" t="n">
-        <v>8562.5560563452</v>
+        <v>6706.03625471953</v>
       </c>
       <c r="D20" t="n">
-        <v>7518.93978638401</v>
+        <v>6289.79895222189</v>
       </c>
       <c r="E20" t="n">
-        <v>14028.6621521003</v>
+        <v>14028.676743449</v>
       </c>
       <c r="F20" t="n">
-        <v>15998.3573727516</v>
+        <v>15998.392911058</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>11747</v>
       </c>
       <c r="I20" t="n">
-        <v>-792.786676410002</v>
+        <v>-1840.57467286772</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>11050.7924137625</v>
+        <v>9950.03191818565</v>
       </c>
       <c r="C21" t="n">
-        <v>8573.94428559088</v>
+        <v>6536.68949653841</v>
       </c>
       <c r="D21" t="n">
-        <v>7499.50499135429</v>
+        <v>6177.41725925235</v>
       </c>
       <c r="E21" t="n">
-        <v>14259.0837067858</v>
+        <v>14259.1005826351</v>
       </c>
       <c r="F21" t="n">
-        <v>16326.3713866875</v>
+        <v>16326.4121915514</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>12019</v>
       </c>
       <c r="I21" t="n">
-        <v>-968.207586237524</v>
+        <v>-2068.96808181435</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>10575.9720311148</v>
+        <v>9582.95190543984</v>
       </c>
       <c r="C22" t="n">
-        <v>8148.2898971633</v>
+        <v>6524.7961964046</v>
       </c>
       <c r="D22" t="n">
-        <v>7100.99930096047</v>
+        <v>6086.87867474824</v>
       </c>
       <c r="E22" t="n">
-        <v>13743.165296155</v>
+        <v>13743.178748761</v>
       </c>
       <c r="F22" t="n">
-        <v>15795.0212885037</v>
+        <v>15795.0553460701</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>11744</v>
       </c>
       <c r="I22" t="n">
-        <v>-1168.02796888516</v>
+        <v>-2161.04809456016</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>10208.2508235614</v>
+        <v>9277.96419029679</v>
       </c>
       <c r="C23" t="n">
-        <v>7811.39184138837</v>
+        <v>6649.12223730787</v>
       </c>
       <c r="D23" t="n">
-        <v>6782.98106575406</v>
+        <v>6311.22177912796</v>
       </c>
       <c r="E23" t="n">
-        <v>13357.1619546642</v>
+        <v>13357.1742212173</v>
       </c>
       <c r="F23" t="n">
-        <v>15407.9551271005</v>
+        <v>15407.9859275124</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>10720</v>
       </c>
       <c r="I23" t="n">
-        <v>-511.749176438587</v>
+        <v>-1442.03580970321</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>10504.1995282014</v>
+        <v>9752.12929446015</v>
       </c>
       <c r="C24" t="n">
-        <v>7982.24096865676</v>
+        <v>6909.10020038717</v>
       </c>
       <c r="D24" t="n">
-        <v>6906.09000773739</v>
+        <v>6462.22371088418</v>
       </c>
       <c r="E24" t="n">
-        <v>13841.0644255275</v>
+        <v>13841.0797943741</v>
       </c>
       <c r="F24" t="n">
-        <v>16025.927641778</v>
+        <v>16025.9663790884</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>11119</v>
       </c>
       <c r="I24" t="n">
-        <v>-614.800471798571</v>
+        <v>-1366.87070553985</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>10642.9188784995</v>
+        <v>10012.3161374525</v>
       </c>
       <c r="C25" t="n">
-        <v>8033.75640543044</v>
+        <v>7339.9879165998</v>
       </c>
       <c r="D25" t="n">
-        <v>6926.27973723368</v>
+        <v>6750.18169947389</v>
       </c>
       <c r="E25" t="n">
-        <v>14118.850385559</v>
+        <v>14118.8671921874</v>
       </c>
       <c r="F25" t="n">
-        <v>16406.5275389458</v>
+        <v>16406.5710953585</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>11264</v>
       </c>
       <c r="I25" t="n">
-        <v>-621.081121500545</v>
+        <v>-1251.6838625475</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>9327.92535292568</v>
+        <v>9138.83867365893</v>
       </c>
       <c r="C26" t="n">
-        <v>6980.22319389075</v>
+        <v>6980.2214163028</v>
       </c>
       <c r="D26" t="n">
-        <v>5990.56829873566</v>
+        <v>5990.55700358708</v>
       </c>
       <c r="E26" t="n">
-        <v>12483.4558321689</v>
+        <v>12483.4686356574</v>
       </c>
       <c r="F26" t="n">
-        <v>14574.2113735089</v>
+        <v>14574.2393078575</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>9273</v>
       </c>
       <c r="I26" t="n">
-        <v>54.9253529256821</v>
+        <v>-134.161326341067</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>7251.77237940464</v>
+        <v>7683.49786748688</v>
       </c>
       <c r="C27" t="n">
-        <v>5397.08572598979</v>
+        <v>5397.06935608745</v>
       </c>
       <c r="D27" t="n">
-        <v>4618.63409288455</v>
+        <v>4618.59848843994</v>
       </c>
       <c r="E27" t="n">
-        <v>9758.59222200862</v>
+        <v>11869.6282761138</v>
       </c>
       <c r="F27" t="n">
-        <v>11426.5259507469</v>
+        <v>13156.821487208</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>6979</v>
       </c>
       <c r="I27" t="n">
-        <v>272.772379404641</v>
+        <v>704.497867486878</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>9112.70952235268</v>
+        <v>8931.11806991609</v>
       </c>
       <c r="C28" t="n">
-        <v>6724.86287915771</v>
+        <v>6724.8581467835</v>
       </c>
       <c r="D28" t="n">
-        <v>5729.34981092567</v>
+        <v>5729.33380812185</v>
       </c>
       <c r="E28" t="n">
-        <v>12368.2477465623</v>
+        <v>12368.2586360369</v>
       </c>
       <c r="F28" t="n">
-        <v>14548.5250107988</v>
+        <v>14548.5512358415</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>8886</v>
       </c>
       <c r="I28" t="n">
-        <v>226.709522352683</v>
+        <v>45.1180699160941</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>9212.34495395515</v>
+        <v>9085.02339956153</v>
       </c>
       <c r="C29" t="n">
-        <v>6747.04554402592</v>
+        <v>6747.04108123902</v>
       </c>
       <c r="D29" t="n">
-        <v>5725.41168268334</v>
+        <v>5725.39565511339</v>
       </c>
       <c r="E29" t="n">
-        <v>12599.6530069511</v>
+        <v>12599.6655188464</v>
       </c>
       <c r="F29" t="n">
-        <v>14881.4570019577</v>
+        <v>14881.4874928371</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7821</v>
       </c>
       <c r="I29" t="n">
-        <v>1391.34495395515</v>
+        <v>1264.02339956153</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>9980.46582672676</v>
+        <v>9673.91214444554</v>
       </c>
       <c r="C30" t="n">
-        <v>7252.92283466417</v>
+        <v>7039.34441219912</v>
       </c>
       <c r="D30" t="n">
-        <v>6129.58491577809</v>
+        <v>6129.5730086417</v>
       </c>
       <c r="E30" t="n">
-        <v>13758.071484998</v>
+        <v>13758.0886916178</v>
       </c>
       <c r="F30" t="n">
-        <v>16318.087129947</v>
+        <v>16318.1337931981</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8395</v>
       </c>
       <c r="I30" t="n">
-        <v>1585.46582672676</v>
+        <v>1278.91214444554</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>10002.2046564381</v>
+        <v>9628.68112050326</v>
       </c>
       <c r="C31" t="n">
-        <v>7216.56969692982</v>
+        <v>7017.94964804869</v>
       </c>
       <c r="D31" t="n">
-        <v>6075.85551018478</v>
+        <v>6075.84232313997</v>
       </c>
       <c r="E31" t="n">
-        <v>13888.803731182</v>
+        <v>13888.8209433379</v>
       </c>
       <c r="F31" t="n">
-        <v>16537.3158707042</v>
+        <v>16537.3649280467</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>8988</v>
       </c>
       <c r="I31" t="n">
-        <v>1014.20465643807</v>
+        <v>640.681120503265</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>10875.3575496325</v>
+        <v>10415.2704172185</v>
       </c>
       <c r="C32" t="n">
-        <v>7787.81274540674</v>
+        <v>6823.81972516256</v>
       </c>
       <c r="D32" t="n">
-        <v>6531.00058064595</v>
+        <v>6278.62823965462</v>
       </c>
       <c r="E32" t="n">
-        <v>15216.4492859871</v>
+        <v>15216.4798785321</v>
       </c>
       <c r="F32" t="n">
-        <v>18191.8221008985</v>
+        <v>18191.903325444</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9263</v>
       </c>
       <c r="I32" t="n">
-        <v>1612.35754963246</v>
+        <v>1152.27041721854</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>10971.2293756233</v>
+        <v>10090.9003337245</v>
       </c>
       <c r="C33" t="n">
-        <v>7802.07392187954</v>
+        <v>6572.34182484167</v>
       </c>
       <c r="D33" t="n">
-        <v>6519.15392769943</v>
+        <v>6164.34691028758</v>
       </c>
       <c r="E33" t="n">
-        <v>15458.8704539713</v>
+        <v>15458.9044903511</v>
       </c>
       <c r="F33" t="n">
-        <v>18551.1659658993</v>
+        <v>18551.2560760567</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>9275</v>
       </c>
       <c r="I33" t="n">
-        <v>1696.22937562327</v>
+        <v>815.900333724458</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>10499.8851365887</v>
+        <v>9390.89231640549</v>
       </c>
       <c r="C34" t="n">
-        <v>7418.53515051788</v>
+        <v>6518.5037465833</v>
       </c>
       <c r="D34" t="n">
-        <v>6177.5945857645</v>
+        <v>6109.02525085841</v>
       </c>
       <c r="E34" t="n">
-        <v>14892.3083779222</v>
+        <v>14892.336575754</v>
       </c>
       <c r="F34" t="n">
-        <v>17934.1475059684</v>
+        <v>17934.2249335831</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>8598</v>
       </c>
       <c r="I34" t="n">
-        <v>1901.88513658874</v>
+        <v>792.892316405489</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>10134.8541635587</v>
+        <v>9294.27050660661</v>
       </c>
       <c r="C35" t="n">
-        <v>7114.88894549025</v>
+        <v>6488.10412270547</v>
       </c>
       <c r="D35" t="n">
-        <v>5904.86142652703</v>
+        <v>5904.84663890661</v>
       </c>
       <c r="E35" t="n">
-        <v>14468.116376331</v>
+        <v>14468.1418416013</v>
       </c>
       <c r="F35" t="n">
-        <v>17483.8043272723</v>
+        <v>17483.8746238822</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>7959</v>
       </c>
       <c r="I35" t="n">
-        <v>2175.85416355866</v>
+        <v>1335.27050660661</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>10428.6378468769</v>
+        <v>9523.62659156804</v>
       </c>
       <c r="C36" t="n">
-        <v>7272.50727169804</v>
+        <v>6632.93881296096</v>
       </c>
       <c r="D36" t="n">
-        <v>6014.6187237384</v>
+        <v>6014.60510168016</v>
       </c>
       <c r="E36" t="n">
-        <v>14988.2929089428</v>
+        <v>14988.323618594</v>
       </c>
       <c r="F36" t="n">
-        <v>18177.8300754378</v>
+        <v>18177.9147812727</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>7630</v>
       </c>
       <c r="I36" t="n">
-        <v>2798.63784687685</v>
+        <v>1893.62659156804</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>10566.3420283876</v>
+        <v>9830.97860489195</v>
       </c>
       <c r="C37" t="n">
-        <v>7321.29403016387</v>
+        <v>6753.06576331089</v>
       </c>
       <c r="D37" t="n">
-        <v>6034.58173316634</v>
+        <v>6034.56788446269</v>
       </c>
       <c r="E37" t="n">
-        <v>15285.4449862863</v>
+        <v>15285.4784181782</v>
       </c>
       <c r="F37" t="n">
-        <v>18602.8732680173</v>
+        <v>18602.9669385721</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>6027</v>
       </c>
       <c r="I37" t="n">
-        <v>4539.34202838757</v>
+        <v>3803.97860489195</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>9260.96222734801</v>
+        <v>8968.50583705159</v>
       </c>
       <c r="C38" t="n">
-        <v>6366.45887462256</v>
+        <v>6366.4519084868</v>
       </c>
       <c r="D38" t="n">
-        <v>5225.93179849945</v>
+        <v>5225.90721679741</v>
       </c>
       <c r="E38" t="n">
-        <v>13504.3960495153</v>
+        <v>13504.4192303772</v>
       </c>
       <c r="F38" t="n">
-        <v>16505.5468483748</v>
+        <v>16505.6070094264</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4762</v>
       </c>
       <c r="I38" t="n">
-        <v>4498.96222734801</v>
+        <v>4206.50583705159</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>7199.93866648781</v>
+        <v>7472.15445286023</v>
       </c>
       <c r="C39" t="n">
-        <v>4925.63637778082</v>
+        <v>4925.60932165157</v>
       </c>
       <c r="D39" t="n">
-        <v>4032.9528594272</v>
+        <v>4032.89590530891</v>
       </c>
       <c r="E39" t="n">
-        <v>10550.7632568814</v>
+        <v>11577.2693937016</v>
       </c>
       <c r="F39" t="n">
-        <v>12929.4722102152</v>
+        <v>12929.5036307837</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>6589</v>
       </c>
       <c r="I39" t="n">
-        <v>610.938666487811</v>
+        <v>883.154452860232</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>9047.31766891789</v>
+        <v>8919.00274657909</v>
       </c>
       <c r="C40" t="n">
-        <v>6136.98453993174</v>
+        <v>6136.97399624695</v>
       </c>
       <c r="D40" t="n">
-        <v>5002.39243928914</v>
+        <v>5002.36196596389</v>
       </c>
       <c r="E40" t="n">
-        <v>13372.815116039</v>
+        <v>13372.8359572265</v>
       </c>
       <c r="F40" t="n">
-        <v>16463.576657364</v>
+        <v>16463.6347062739</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>8029</v>
       </c>
       <c r="I40" t="n">
-        <v>1018.31766891789</v>
+        <v>890.002746579088</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>9146.22574937722</v>
+        <v>9029.481516852</v>
       </c>
       <c r="C41" t="n">
-        <v>6158.90367411484</v>
+        <v>6158.89344834521</v>
       </c>
       <c r="D41" t="n">
-        <v>5001.07495916116</v>
+        <v>5001.04445411299</v>
       </c>
       <c r="E41" t="n">
-        <v>13619.5269971971</v>
+        <v>13619.5503165386</v>
       </c>
       <c r="F41" t="n">
-        <v>16833.8823335112</v>
+        <v>16833.9477381222</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7931</v>
       </c>
       <c r="I41" t="n">
-        <v>1215.22574937722</v>
+        <v>1098.481516852</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>9908.73480027556</v>
+        <v>9547.06955482649</v>
       </c>
       <c r="C42" t="n">
-        <v>6621.45417309799</v>
+        <v>6621.44713724334</v>
       </c>
       <c r="D42" t="n">
-        <v>5355.14124434312</v>
+        <v>5355.11705186281</v>
       </c>
       <c r="E42" t="n">
-        <v>14870.0015864753</v>
+        <v>14870.034035925</v>
       </c>
       <c r="F42" t="n">
-        <v>18456.008601893</v>
+        <v>18456.1044755007</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9077</v>
       </c>
       <c r="I42" t="n">
-        <v>831.734800275563</v>
+        <v>470.069554826487</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>9930.31469703058</v>
+        <v>9579.96649987336</v>
       </c>
       <c r="C43" t="n">
-        <v>6589.55832662178</v>
+        <v>6589.55034391873</v>
       </c>
       <c r="D43" t="n">
-        <v>5309.83180704097</v>
+        <v>5309.80615230885</v>
       </c>
       <c r="E43" t="n">
-        <v>15008.6247566056</v>
+        <v>15008.6577535081</v>
       </c>
       <c r="F43" t="n">
-        <v>18699.0099582104</v>
+        <v>18699.1105588001</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8863</v>
       </c>
       <c r="I43" t="n">
-        <v>1067.31469703058</v>
+        <v>716.966499873361</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10797.0791696066</v>
+        <v>10260.6602197093</v>
       </c>
       <c r="C44" t="n">
-        <v>7111.39088231518</v>
+        <v>7042.05643996228</v>
       </c>
       <c r="D44" t="n">
-        <v>5707.94584003078</v>
+        <v>5707.92691487797</v>
       </c>
       <c r="E44" t="n">
-        <v>16442.8130138784</v>
+        <v>16442.8662928968</v>
       </c>
       <c r="F44" t="n">
-        <v>20569.1251679324</v>
+        <v>20569.2788054522</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>10104</v>
       </c>
       <c r="I44" t="n">
-        <v>693.079169606597</v>
+        <v>156.660219709311</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>10892.2489981488</v>
+        <v>10198.7631235159</v>
       </c>
       <c r="C45" t="n">
-        <v>7125.22748980759</v>
+        <v>6819.88686240085</v>
       </c>
       <c r="D45" t="n">
-        <v>5698.6330161977</v>
+        <v>5698.6139095023</v>
       </c>
       <c r="E45" t="n">
-        <v>16703.1403150955</v>
+        <v>16703.1985272115</v>
       </c>
       <c r="F45" t="n">
-        <v>20972.4717279906</v>
+        <v>20972.6393528617</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>10924</v>
       </c>
       <c r="I45" t="n">
-        <v>-31.7510018511621</v>
+        <v>-725.236876484059</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>10424.3550249372</v>
+        <v>9335.68128513708</v>
       </c>
       <c r="C46" t="n">
-        <v>6776.08417579172</v>
+        <v>6611.92421792044</v>
       </c>
       <c r="D46" t="n">
-        <v>5401.45156740421</v>
+        <v>5401.42760470334</v>
       </c>
       <c r="E46" t="n">
-        <v>16088.7555606151</v>
+        <v>16088.8048324558</v>
       </c>
       <c r="F46" t="n">
-        <v>20270.7240814162</v>
+        <v>20270.8707586193</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>10147</v>
       </c>
       <c r="I46" t="n">
-        <v>277.355024937238</v>
+        <v>-811.31871486292</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>10061.9942729439</v>
+        <v>9404.3821272449</v>
       </c>
       <c r="C47" t="n">
-        <v>6499.54457177635</v>
+        <v>6499.5364883728</v>
       </c>
       <c r="D47" t="n">
-        <v>5163.99131899074</v>
+        <v>5163.96308012112</v>
       </c>
       <c r="E47" t="n">
-        <v>15628.9383012348</v>
+        <v>15628.9827973866</v>
       </c>
       <c r="F47" t="n">
-        <v>19758.813438964</v>
+        <v>19758.9474806221</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>10328</v>
       </c>
       <c r="I47" t="n">
-        <v>-266.005727056112</v>
+        <v>-923.6178727551</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>10353.629040249</v>
+        <v>9637.10875142472</v>
       </c>
       <c r="C48" t="n">
-        <v>6643.54315078772</v>
+        <v>6627.93603115994</v>
       </c>
       <c r="D48" t="n">
-        <v>5260.04233169338</v>
+        <v>5260.01580167282</v>
       </c>
       <c r="E48" t="n">
-        <v>16191.0207270539</v>
+        <v>16191.0732732512</v>
       </c>
       <c r="F48" t="n">
-        <v>20543.6839280197</v>
+        <v>20543.8416101066</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>10065</v>
       </c>
       <c r="I48" t="n">
-        <v>288.629040249041</v>
+        <v>-427.891248575284</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>10490.3256073831</v>
+        <v>9783.35700871389</v>
       </c>
       <c r="C49" t="n">
-        <v>6688.14486819031</v>
+        <v>6631.610732828</v>
       </c>
       <c r="D49" t="n">
-        <v>5277.58553559371</v>
+        <v>5277.55890359613</v>
       </c>
       <c r="E49" t="n">
-        <v>16512.1891996657</v>
+        <v>16512.2461551146</v>
       </c>
       <c r="F49" t="n">
-        <v>21024.5647352254</v>
+        <v>21024.737314399</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>9414</v>
       </c>
       <c r="I49" t="n">
-        <v>1076.32560738309</v>
+        <v>369.357008713891</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Gonorrhea.xlsx
+++ b/outcome/appendix/forecast/Gonorrhea.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>9454.36419528107</v>
+        <v>9447.0166365476</v>
       </c>
       <c r="C2" t="n">
-        <v>8424.1989243842</v>
+        <v>8675.00251329669</v>
       </c>
       <c r="D2" t="n">
-        <v>8057.70194049993</v>
+        <v>8292.62022302159</v>
       </c>
       <c r="E2" t="n">
-        <v>10289.0303351114</v>
+        <v>10289.028609103</v>
       </c>
       <c r="F2" t="n">
-        <v>10765.2817891636</v>
+        <v>10765.2804220073</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>8254</v>
       </c>
       <c r="I2" t="n">
-        <v>1200.36419528107</v>
+        <v>1193.0166365476</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>7655.45522928384</v>
+        <v>7349.95317876232</v>
       </c>
       <c r="C3" t="n">
-        <v>6618.58338406613</v>
+        <v>6740.96757431895</v>
       </c>
       <c r="D3" t="n">
-        <v>6332.17451619877</v>
+        <v>6439.62585150405</v>
       </c>
       <c r="E3" t="n">
-        <v>9348.86412401337</v>
+        <v>8014.99246975212</v>
       </c>
       <c r="F3" t="n">
-        <v>9631.86234335385</v>
+        <v>8391.50750456758</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>3524</v>
       </c>
       <c r="I3" t="n">
-        <v>4131.45522928384</v>
+        <v>3825.95317876232</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>9172.88596556574</v>
+        <v>9244.93954126024</v>
       </c>
       <c r="C4" t="n">
-        <v>8236.46688053189</v>
+        <v>8399.96199017844</v>
       </c>
       <c r="D4" t="n">
-        <v>7820.24062554174</v>
+        <v>7984.8970837613</v>
       </c>
       <c r="E4" t="n">
-        <v>10176.5345270273</v>
+        <v>10176.5339779303</v>
       </c>
       <c r="F4" t="n">
-        <v>10707.8027662144</v>
+        <v>10707.8024522719</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4661</v>
       </c>
       <c r="I4" t="n">
-        <v>4511.88596556574</v>
+        <v>4583.93954126024</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>9291.57037504997</v>
+        <v>9346.04607303802</v>
       </c>
       <c r="C5" t="n">
-        <v>8294.54577584362</v>
+        <v>8375.00327012555</v>
       </c>
       <c r="D5" t="n">
-        <v>7846.90439691392</v>
+        <v>7903.16135319427</v>
       </c>
       <c r="E5" t="n">
-        <v>10431.8510664036</v>
+        <v>10431.8499851935</v>
       </c>
       <c r="F5" t="n">
-        <v>11057.747473867</v>
+        <v>11057.7463571661</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6267</v>
       </c>
       <c r="I5" t="n">
-        <v>3024.57037504997</v>
+        <v>3079.04607303802</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>9749.30098048124</v>
+        <v>10125.5167960491</v>
       </c>
       <c r="C6" t="n">
-        <v>8040.54202338485</v>
+        <v>8961.3091691047</v>
       </c>
       <c r="D6" t="n">
-        <v>7697.38744020562</v>
+        <v>8401.09696340647</v>
       </c>
       <c r="E6" t="n">
-        <v>11443.9288949382</v>
+        <v>11443.9284579853</v>
       </c>
       <c r="F6" t="n">
-        <v>12211.2713598283</v>
+        <v>12211.2698367301</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>8104</v>
       </c>
       <c r="I6" t="n">
-        <v>1645.30098048124</v>
+        <v>2021.51679604914</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>9763.4001976563</v>
+        <v>10147.5769876689</v>
       </c>
       <c r="C7" t="n">
-        <v>7658.29946918439</v>
+        <v>8881.14344703773</v>
       </c>
       <c r="D7" t="n">
-        <v>7272.55812190854</v>
+        <v>8277.05475636884</v>
       </c>
       <c r="E7" t="n">
-        <v>11598.1704708254</v>
+        <v>11598.1706231416</v>
       </c>
       <c r="F7" t="n">
-        <v>12449.77708076</v>
+        <v>12449.7757356673</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>9292</v>
       </c>
       <c r="I7" t="n">
-        <v>471.400197656301</v>
+        <v>855.576987668859</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>10391.5084511433</v>
+        <v>11033.6508623261</v>
       </c>
       <c r="C8" t="n">
-        <v>7558.60496752744</v>
+        <v>9555.78669031704</v>
       </c>
       <c r="D8" t="n">
-        <v>7260.50845840305</v>
+        <v>8856.63302011191</v>
       </c>
       <c r="E8" t="n">
-        <v>12744.6446049003</v>
+        <v>12744.6412524416</v>
       </c>
       <c r="F8" t="n">
-        <v>13757.3245137163</v>
+        <v>13757.3168078377</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>10724</v>
       </c>
       <c r="I8" t="n">
-        <v>-332.491548856724</v>
+        <v>309.650862326102</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>10377.9194913249</v>
+        <v>11130.9425587433</v>
       </c>
       <c r="C9" t="n">
-        <v>7565.39795490856</v>
+        <v>9547.60522809285</v>
       </c>
       <c r="D9" t="n">
-        <v>7276.58441352386</v>
+        <v>8804.20385440577</v>
       </c>
       <c r="E9" t="n">
-        <v>12982.1537713733</v>
+        <v>12982.1491888821</v>
       </c>
       <c r="F9" t="n">
-        <v>14086.0262262865</v>
+        <v>14086.0161015862</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +672,10 @@
         <v>10724</v>
       </c>
       <c r="I9" t="n">
-        <v>-346.080508675102</v>
+        <v>406.942558743267</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>10058.2452638703</v>
+        <v>10652.6199385988</v>
       </c>
       <c r="C10" t="n">
-        <v>7631.10011017731</v>
+        <v>9056.17289784678</v>
       </c>
       <c r="D10" t="n">
-        <v>7251.07496707537</v>
+        <v>8311.85531171302</v>
       </c>
       <c r="E10" t="n">
-        <v>12890.4630032003</v>
+        <v>12536.2184515591</v>
       </c>
       <c r="F10" t="n">
-        <v>13696.4650875095</v>
+        <v>13667.1802874414</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>11643</v>
       </c>
       <c r="I10" t="n">
-        <v>-1584.75473612969</v>
+        <v>-990.380061401185</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>9722.69713209603</v>
+        <v>10282.1883971673</v>
       </c>
       <c r="C11" t="n">
-        <v>7729.40596074771</v>
+        <v>8667.67190618065</v>
       </c>
       <c r="D11" t="n">
-        <v>7254.58839422416</v>
+        <v>7919.91932088161</v>
       </c>
       <c r="E11" t="n">
-        <v>12687.3842303252</v>
+        <v>12203.6085018469</v>
       </c>
       <c r="F11" t="n">
-        <v>13542.6564395908</v>
+        <v>13364.8483247849</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>10551</v>
       </c>
       <c r="I11" t="n">
-        <v>-828.302867903967</v>
+        <v>-268.811602832744</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>10012.5274985325</v>
+        <v>10580.3183533999</v>
       </c>
       <c r="C12" t="n">
-        <v>8109.38522981361</v>
+        <v>8845.92089288001</v>
       </c>
       <c r="D12" t="n">
-        <v>7592.11711883803</v>
+        <v>8047.83096670677</v>
       </c>
       <c r="E12" t="n">
-        <v>12661.812902159</v>
+        <v>12661.8083852202</v>
       </c>
       <c r="F12" t="n">
-        <v>13927.8277037301</v>
+        <v>13927.8172753035</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>11260</v>
       </c>
       <c r="I12" t="n">
-        <v>-1247.47250146751</v>
+        <v>-679.681646600084</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>10263.5667522061</v>
+        <v>10720.0604355972</v>
       </c>
       <c r="C13" t="n">
-        <v>8371.3364380141</v>
+        <v>8893.02156470762</v>
       </c>
       <c r="D13" t="n">
-        <v>7831.35382582377</v>
+        <v>8057.45835680301</v>
       </c>
       <c r="E13" t="n">
-        <v>13024.3268382903</v>
+        <v>12930.2818535739</v>
       </c>
       <c r="F13" t="n">
-        <v>14282.7427676855</v>
+        <v>14282.7305897973</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>11691</v>
       </c>
       <c r="I13" t="n">
-        <v>-1427.43324779391</v>
+        <v>-970.939564402834</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9146.37625490441</v>
+        <v>9395.38150702116</v>
       </c>
       <c r="C14" t="n">
-        <v>7647.99698603789</v>
+        <v>7710.83743466321</v>
       </c>
       <c r="D14" t="n">
-        <v>6946.93372255698</v>
+        <v>6946.93551886387</v>
       </c>
       <c r="E14" t="n">
-        <v>13379.5088093685</v>
+        <v>11455.6908720415</v>
       </c>
       <c r="F14" t="n">
-        <v>14585.2233238247</v>
+        <v>12726.9171367529</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>10284</v>
       </c>
       <c r="I14" t="n">
-        <v>-1137.62374509559</v>
+        <v>-888.61849297884</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>7579.66895898759</v>
+        <v>7303.98624376841</v>
       </c>
       <c r="C15" t="n">
-        <v>5953.94019334149</v>
+        <v>5953.94675247571</v>
       </c>
       <c r="D15" t="n">
-        <v>5344.98070100889</v>
+        <v>5344.99634792733</v>
       </c>
       <c r="E15" t="n">
-        <v>13600.8659605593</v>
+        <v>8966.63363677383</v>
       </c>
       <c r="F15" t="n">
-        <v>14649.0655152772</v>
+        <v>9997.88274744489</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>7650</v>
       </c>
       <c r="I15" t="n">
-        <v>-70.3310410124059</v>
+        <v>-346.01375623159</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>8948.6555977941</v>
+        <v>9178.58250257805</v>
       </c>
       <c r="C16" t="n">
-        <v>7292.85291372093</v>
+        <v>7414.28136657346</v>
       </c>
       <c r="D16" t="n">
-        <v>6624.16141769714</v>
+        <v>6624.16638594133</v>
       </c>
       <c r="E16" t="n">
-        <v>13496.1446891613</v>
+        <v>11371.6997467143</v>
       </c>
       <c r="F16" t="n">
-        <v>14605.1263595337</v>
+        <v>12741.5649962112</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>10878</v>
       </c>
       <c r="I16" t="n">
-        <v>-1929.3444022059</v>
+        <v>-1699.41749742195</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>8915.92536051778</v>
+        <v>9278.95076282751</v>
       </c>
       <c r="C17" t="n">
-        <v>7153.61400833586</v>
+        <v>7431.85747088537</v>
       </c>
       <c r="D17" t="n">
-        <v>6610.19751946045</v>
+        <v>6610.20251311783</v>
       </c>
       <c r="E17" t="n">
-        <v>12650.1477534439</v>
+        <v>11595.0211454173</v>
       </c>
       <c r="F17" t="n">
-        <v>14191.5492522193</v>
+        <v>13051.2212230501</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>10874</v>
       </c>
       <c r="I17" t="n">
-        <v>-1958.07463948222</v>
+        <v>-1595.04923717249</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>9434.19193209441</v>
+        <v>10052.7253413466</v>
       </c>
       <c r="C18" t="n">
-        <v>7058.11116009754</v>
+        <v>7983.67054594121</v>
       </c>
       <c r="D18" t="n">
-        <v>6623.74460214312</v>
+        <v>7069.41835338656</v>
       </c>
       <c r="E18" t="n">
-        <v>12669.6720197785</v>
+        <v>12669.6657937799</v>
       </c>
       <c r="F18" t="n">
-        <v>14325.8475418347</v>
+        <v>14325.8319903064</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>10773</v>
       </c>
       <c r="I18" t="n">
-        <v>-1338.80806790559</v>
+        <v>-720.274658653416</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>9339.87006075321</v>
+        <v>10074.6242107366</v>
       </c>
       <c r="C19" t="n">
-        <v>6883.62870562329</v>
+        <v>7938.15258015964</v>
       </c>
       <c r="D19" t="n">
-        <v>6441.3649560767</v>
+        <v>6999.98210793097</v>
       </c>
       <c r="E19" t="n">
-        <v>12798.7201075801</v>
+        <v>12798.7142291311</v>
       </c>
       <c r="F19" t="n">
-        <v>14533.2426682393</v>
+        <v>14533.2263719235</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>10950</v>
       </c>
       <c r="I19" t="n">
-        <v>-1610.12993924679</v>
+        <v>-875.375789263398</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>9906.42532713228</v>
+        <v>10954.2135248799</v>
       </c>
       <c r="C20" t="n">
-        <v>6706.03625471953</v>
+        <v>8562.55608677376</v>
       </c>
       <c r="D20" t="n">
-        <v>6289.79895222189</v>
+        <v>7518.93957317076</v>
       </c>
       <c r="E20" t="n">
-        <v>14028.676743449</v>
+        <v>14028.6636023679</v>
       </c>
       <c r="F20" t="n">
-        <v>15998.392911058</v>
+        <v>15998.3609133446</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>11747</v>
       </c>
       <c r="I20" t="n">
-        <v>-1840.57467286772</v>
+        <v>-792.786475120134</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>9950.03191818565</v>
+        <v>11050.7926505187</v>
       </c>
       <c r="C21" t="n">
-        <v>6536.68949653841</v>
+        <v>8573.94432715254</v>
       </c>
       <c r="D21" t="n">
-        <v>6177.41725925235</v>
+        <v>7499.50477557556</v>
       </c>
       <c r="E21" t="n">
-        <v>14259.1005826351</v>
+        <v>14259.0853842659</v>
       </c>
       <c r="F21" t="n">
-        <v>16326.4121915514</v>
+        <v>16326.375452235</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>12019</v>
       </c>
       <c r="I21" t="n">
-        <v>-2068.96808181435</v>
+        <v>-968.207349481305</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>9582.95190543984</v>
+        <v>10575.9722458306</v>
       </c>
       <c r="C22" t="n">
-        <v>6524.7961964046</v>
+        <v>8148.28988772843</v>
       </c>
       <c r="D22" t="n">
-        <v>6086.87867474824</v>
+        <v>7100.99891201491</v>
       </c>
       <c r="E22" t="n">
-        <v>13743.178748761</v>
+        <v>13743.1666323283</v>
       </c>
       <c r="F22" t="n">
-        <v>15795.0553460701</v>
+        <v>15795.0246803811</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>11744</v>
       </c>
       <c r="I22" t="n">
-        <v>-2161.04809456016</v>
+        <v>-1168.02775416941</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>9277.96419029679</v>
+        <v>10208.2511006801</v>
       </c>
       <c r="C23" t="n">
-        <v>6649.12223730787</v>
+        <v>7811.39181241986</v>
       </c>
       <c r="D23" t="n">
-        <v>6311.22177912796</v>
+        <v>6782.98052911596</v>
       </c>
       <c r="E23" t="n">
-        <v>13357.1742212173</v>
+        <v>13357.1631717341</v>
       </c>
       <c r="F23" t="n">
-        <v>15407.9859275124</v>
+        <v>15407.9581925654</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>10720</v>
       </c>
       <c r="I23" t="n">
-        <v>-1442.03580970321</v>
+        <v>-511.7488993199</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>9752.12929446015</v>
+        <v>10504.1998106406</v>
       </c>
       <c r="C24" t="n">
-        <v>6909.10020038717</v>
+        <v>7982.2409653522</v>
       </c>
       <c r="D24" t="n">
-        <v>6462.22371088418</v>
+        <v>6906.08953409793</v>
       </c>
       <c r="E24" t="n">
-        <v>13841.0797943741</v>
+        <v>13841.065951922</v>
       </c>
       <c r="F24" t="n">
-        <v>16025.9663790884</v>
+        <v>16025.9314995524</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>11119</v>
       </c>
       <c r="I24" t="n">
-        <v>-1366.87070553985</v>
+        <v>-614.800189359439</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>10012.3161374525</v>
+        <v>10642.9191136462</v>
       </c>
       <c r="C25" t="n">
-        <v>7339.9879165998</v>
+        <v>8033.75636237366</v>
       </c>
       <c r="D25" t="n">
-        <v>6750.18169947389</v>
+        <v>6926.27922874583</v>
       </c>
       <c r="E25" t="n">
-        <v>14118.8671921874</v>
+        <v>14118.852056203</v>
       </c>
       <c r="F25" t="n">
-        <v>16406.5710953585</v>
+        <v>16406.5318788923</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>11264</v>
       </c>
       <c r="I25" t="n">
-        <v>-1251.6838625475</v>
+        <v>-621.080886353804</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>9138.83867365893</v>
+        <v>9327.92590351375</v>
       </c>
       <c r="C26" t="n">
-        <v>6980.2214163028</v>
+        <v>6980.22301667993</v>
       </c>
       <c r="D26" t="n">
-        <v>5990.55700358708</v>
+        <v>5990.56717119827</v>
       </c>
       <c r="E26" t="n">
-        <v>12483.4686356574</v>
+        <v>12483.4571007757</v>
       </c>
       <c r="F26" t="n">
-        <v>14574.2393078575</v>
+        <v>14574.2141492973</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,10 +1216,10 @@
         <v>9273</v>
       </c>
       <c r="I26" t="n">
-        <v>-134.161326341067</v>
+        <v>54.9259035137457</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>7683.49786748688</v>
+        <v>7251.77295710055</v>
       </c>
       <c r="C27" t="n">
-        <v>5397.06935608745</v>
+        <v>5397.08409086337</v>
       </c>
       <c r="D27" t="n">
-        <v>4618.59848843994</v>
+        <v>4618.63053505902</v>
       </c>
       <c r="E27" t="n">
-        <v>11869.6282761138</v>
+        <v>9758.59363253318</v>
       </c>
       <c r="F27" t="n">
-        <v>13156.821487208</v>
+        <v>11426.5277955053</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>6979</v>
       </c>
       <c r="I27" t="n">
-        <v>704.497867486878</v>
+        <v>272.772957100552</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>8931.11806991609</v>
+        <v>9112.70992200565</v>
       </c>
       <c r="C28" t="n">
-        <v>6724.8581467835</v>
+        <v>6724.862407876</v>
       </c>
       <c r="D28" t="n">
-        <v>5729.33380812185</v>
+        <v>5729.34821385664</v>
       </c>
       <c r="E28" t="n">
-        <v>12368.2586360369</v>
+        <v>12368.2488254272</v>
       </c>
       <c r="F28" t="n">
-        <v>14548.5512358415</v>
+        <v>14548.5276171628</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>8886</v>
       </c>
       <c r="I28" t="n">
-        <v>45.1180699160941</v>
+        <v>226.709922005652</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>9085.02339956153</v>
+        <v>9212.34539246837</v>
       </c>
       <c r="C29" t="n">
-        <v>6747.04108123902</v>
+        <v>6747.0450995737</v>
       </c>
       <c r="D29" t="n">
-        <v>5725.39565511339</v>
+        <v>5725.41008310545</v>
       </c>
       <c r="E29" t="n">
-        <v>12599.6655188464</v>
+        <v>12599.654246875</v>
       </c>
       <c r="F29" t="n">
-        <v>14881.4874928371</v>
+        <v>14881.4600331344</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>7821</v>
       </c>
       <c r="I29" t="n">
-        <v>1264.02339956153</v>
+        <v>1391.34539246837</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>9673.91214444554</v>
+        <v>9980.46615449476</v>
       </c>
       <c r="C30" t="n">
-        <v>7039.34441219912</v>
+        <v>7252.92256622113</v>
       </c>
       <c r="D30" t="n">
-        <v>6129.5730086417</v>
+        <v>6129.58372885543</v>
       </c>
       <c r="E30" t="n">
-        <v>13758.0886916178</v>
+        <v>13758.0731931023</v>
       </c>
       <c r="F30" t="n">
-        <v>16318.1337931981</v>
+        <v>16318.0917761149</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>8395</v>
       </c>
       <c r="I30" t="n">
-        <v>1278.91214444554</v>
+        <v>1585.46615449476</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>9628.68112050326</v>
+        <v>10002.2049012779</v>
       </c>
       <c r="C31" t="n">
-        <v>7017.94964804869</v>
+        <v>7216.56933874466</v>
       </c>
       <c r="D31" t="n">
-        <v>6075.84232313997</v>
+        <v>6075.85419592946</v>
       </c>
       <c r="E31" t="n">
-        <v>13888.8209433379</v>
+        <v>13888.8054403866</v>
       </c>
       <c r="F31" t="n">
-        <v>16537.3649280467</v>
+        <v>16537.3207565721</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>8988</v>
       </c>
       <c r="I31" t="n">
-        <v>640.681120503265</v>
+        <v>1014.20490127788</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>10415.2704172185</v>
+        <v>10875.3579114992</v>
       </c>
       <c r="C32" t="n">
-        <v>6823.81972516256</v>
+        <v>7787.81262333751</v>
       </c>
       <c r="D32" t="n">
-        <v>6278.62823965462</v>
+        <v>6530.99972955825</v>
       </c>
       <c r="E32" t="n">
-        <v>15216.4798785321</v>
+        <v>15216.4523294417</v>
       </c>
       <c r="F32" t="n">
-        <v>18191.903325444</v>
+        <v>18191.8301981034</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>9263</v>
       </c>
       <c r="I32" t="n">
-        <v>1152.27041721854</v>
+        <v>1612.35791149917</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>10090.9003337245</v>
+        <v>10971.229773317</v>
       </c>
       <c r="C33" t="n">
-        <v>6572.34182484167</v>
+        <v>7802.07380882063</v>
       </c>
       <c r="D33" t="n">
-        <v>6164.34691028758</v>
+        <v>6519.1530656986</v>
       </c>
       <c r="E33" t="n">
-        <v>15458.9044903511</v>
+        <v>15458.8738403037</v>
       </c>
       <c r="F33" t="n">
-        <v>18551.2560760567</v>
+        <v>18551.1749494091</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>9275</v>
       </c>
       <c r="I33" t="n">
-        <v>815.900333724458</v>
+        <v>1696.22977331699</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>9390.89231640549</v>
+        <v>10499.8855087319</v>
       </c>
       <c r="C34" t="n">
-        <v>6518.5037465833</v>
+        <v>7418.5349149732</v>
       </c>
       <c r="D34" t="n">
-        <v>6109.02525085841</v>
+        <v>6177.59339827655</v>
       </c>
       <c r="E34" t="n">
-        <v>14892.336575754</v>
+        <v>14892.3111816708</v>
       </c>
       <c r="F34" t="n">
-        <v>17934.2249335831</v>
+        <v>17934.1552226656</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>8598</v>
       </c>
       <c r="I34" t="n">
-        <v>792.892316405489</v>
+        <v>1901.88550873186</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>9294.27050660661</v>
+        <v>10134.8545937092</v>
       </c>
       <c r="C35" t="n">
-        <v>6488.10412270547</v>
+        <v>7114.88861820318</v>
       </c>
       <c r="D35" t="n">
-        <v>5904.84663890661</v>
+        <v>5904.85995195319</v>
       </c>
       <c r="E35" t="n">
-        <v>14468.1418416013</v>
+        <v>14468.118906393</v>
       </c>
       <c r="F35" t="n">
-        <v>17483.8746238822</v>
+        <v>17483.8113302171</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>7959</v>
       </c>
       <c r="I35" t="n">
-        <v>1335.27050660661</v>
+        <v>2175.85459370917</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>9523.62659156804</v>
+        <v>10428.6382855552</v>
       </c>
       <c r="C36" t="n">
-        <v>6632.93881296096</v>
+        <v>7272.5070028539</v>
       </c>
       <c r="D36" t="n">
-        <v>6014.60510168016</v>
+        <v>6014.61736590205</v>
       </c>
       <c r="E36" t="n">
-        <v>14988.323618594</v>
+        <v>14988.295962177</v>
       </c>
       <c r="F36" t="n">
-        <v>18177.9147812727</v>
+        <v>18177.8385172057</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>7630</v>
       </c>
       <c r="I36" t="n">
-        <v>1893.62659156804</v>
+        <v>2798.63828555515</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>9830.97860489195</v>
+        <v>10566.342421425</v>
       </c>
       <c r="C37" t="n">
-        <v>6753.06576331089</v>
+        <v>7321.29373295287</v>
       </c>
       <c r="D37" t="n">
-        <v>6034.56788446269</v>
+        <v>6034.58035329243</v>
       </c>
       <c r="E37" t="n">
-        <v>15285.4784181782</v>
+        <v>15285.4483120589</v>
       </c>
       <c r="F37" t="n">
-        <v>18602.9669385721</v>
+        <v>18602.8826061706</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>6027</v>
       </c>
       <c r="I37" t="n">
-        <v>3803.97860489195</v>
+        <v>4539.34242142498</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>8968.50583705159</v>
+        <v>9260.96291544396</v>
       </c>
       <c r="C38" t="n">
-        <v>6366.4519084868</v>
+        <v>6366.45817974043</v>
       </c>
       <c r="D38" t="n">
-        <v>5225.90721679741</v>
+        <v>5225.92934381098</v>
       </c>
       <c r="E38" t="n">
-        <v>13504.4192303772</v>
+        <v>13504.3983490562</v>
       </c>
       <c r="F38" t="n">
-        <v>16505.6070094264</v>
+        <v>16505.5528345786</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>4762</v>
       </c>
       <c r="I38" t="n">
-        <v>4206.50583705159</v>
+        <v>4498.96291544396</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>7472.15445286023</v>
+        <v>7199.93932392534</v>
       </c>
       <c r="C39" t="n">
-        <v>4925.60932165157</v>
+        <v>4925.63367473773</v>
       </c>
       <c r="D39" t="n">
-        <v>4032.89590530891</v>
+        <v>4032.94716748794</v>
       </c>
       <c r="E39" t="n">
-        <v>11577.2693937016</v>
+        <v>10550.7651849868</v>
       </c>
       <c r="F39" t="n">
-        <v>12929.5036307837</v>
+        <v>12929.4753320681</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>6589</v>
       </c>
       <c r="I39" t="n">
-        <v>883.154452860232</v>
+        <v>610.939323925338</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8919.00274657909</v>
+        <v>9047.31820295244</v>
       </c>
       <c r="C40" t="n">
-        <v>6136.97399624695</v>
+        <v>6136.98348857477</v>
       </c>
       <c r="D40" t="n">
-        <v>5002.36196596389</v>
+        <v>5002.38939647635</v>
       </c>
       <c r="E40" t="n">
-        <v>13372.8359572265</v>
+        <v>13372.8171833531</v>
       </c>
       <c r="F40" t="n">
-        <v>16463.6347062739</v>
+        <v>16463.5824338775</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>8029</v>
       </c>
       <c r="I40" t="n">
-        <v>890.002746579088</v>
+        <v>1018.31820295244</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>9029.481516852</v>
+        <v>9146.22632399241</v>
       </c>
       <c r="C41" t="n">
-        <v>6158.89344834521</v>
+        <v>6158.90265446049</v>
       </c>
       <c r="D41" t="n">
-        <v>5001.04445411299</v>
+        <v>5001.07191317698</v>
       </c>
       <c r="E41" t="n">
-        <v>13619.5503165386</v>
+        <v>13619.5293108903</v>
       </c>
       <c r="F41" t="n">
-        <v>16833.9477381222</v>
+        <v>16833.8888432713</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>7931</v>
       </c>
       <c r="I41" t="n">
-        <v>1098.481516852</v>
+        <v>1215.22632399241</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>9547.06955482649</v>
+        <v>9908.73527776977</v>
       </c>
       <c r="C42" t="n">
-        <v>6621.44713724334</v>
+        <v>6621.4534729788</v>
       </c>
       <c r="D42" t="n">
-        <v>5355.11705186281</v>
+        <v>5355.1388303569</v>
       </c>
       <c r="E42" t="n">
-        <v>14870.034035925</v>
+        <v>14870.0048111746</v>
       </c>
       <c r="F42" t="n">
-        <v>18456.1044755007</v>
+        <v>18456.0181548974</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>9077</v>
       </c>
       <c r="I42" t="n">
-        <v>470.069554826487</v>
+        <v>831.735277769765</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>9579.96649987336</v>
+        <v>9930.31509249967</v>
       </c>
       <c r="C43" t="n">
-        <v>6589.55034391873</v>
+        <v>6589.55753248967</v>
       </c>
       <c r="D43" t="n">
-        <v>5309.80615230885</v>
+        <v>5309.82924741474</v>
       </c>
       <c r="E43" t="n">
-        <v>15008.6577535081</v>
+        <v>15008.6280365223</v>
       </c>
       <c r="F43" t="n">
-        <v>18699.1105588001</v>
+        <v>18699.0199839808</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>8863</v>
       </c>
       <c r="I43" t="n">
-        <v>716.966499873361</v>
+        <v>1067.31509249967</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10260.6602197093</v>
+        <v>10797.0796903203</v>
       </c>
       <c r="C44" t="n">
-        <v>7042.05643996228</v>
+        <v>7111.39044716073</v>
       </c>
       <c r="D44" t="n">
-        <v>5707.92691487797</v>
+        <v>5707.94395332703</v>
       </c>
       <c r="E44" t="n">
-        <v>16442.8662928968</v>
+        <v>16442.8183171938</v>
       </c>
       <c r="F44" t="n">
-        <v>20569.2788054522</v>
+        <v>20569.1404899623</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>10104</v>
       </c>
       <c r="I44" t="n">
-        <v>156.660219709311</v>
+        <v>693.079690320325</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>10198.7631235159</v>
+        <v>10892.2495550949</v>
       </c>
       <c r="C45" t="n">
-        <v>6819.88686240085</v>
+        <v>7125.22706345064</v>
       </c>
       <c r="D45" t="n">
-        <v>5698.6139095023</v>
+        <v>5698.63111127039</v>
       </c>
       <c r="E45" t="n">
-        <v>16703.1985272115</v>
+        <v>16703.146109904</v>
       </c>
       <c r="F45" t="n">
-        <v>20972.6393528617</v>
+        <v>20972.4884458015</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>10924</v>
       </c>
       <c r="I45" t="n">
-        <v>-725.236876484059</v>
+        <v>-31.7504449050521</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>9335.68128513708</v>
+        <v>10424.3555526203</v>
       </c>
       <c r="C46" t="n">
-        <v>6611.92421792044</v>
+        <v>6776.08354251081</v>
       </c>
       <c r="D46" t="n">
-        <v>5401.42760470334</v>
+        <v>5401.4491771087</v>
       </c>
       <c r="E46" t="n">
-        <v>16088.8048324558</v>
+        <v>16088.7604629875</v>
       </c>
       <c r="F46" t="n">
-        <v>20270.8707586193</v>
+        <v>20270.7387064317</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>10147</v>
       </c>
       <c r="I46" t="n">
-        <v>-811.31871486292</v>
+        <v>277.355552620267</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>9404.3821272449</v>
+        <v>10061.9948541033</v>
       </c>
       <c r="C47" t="n">
-        <v>6499.5364883728</v>
+        <v>6499.54376715508</v>
       </c>
       <c r="D47" t="n">
-        <v>5163.96308012112</v>
+        <v>5163.9885007835</v>
       </c>
       <c r="E47" t="n">
-        <v>15628.9827973866</v>
+        <v>15628.9427257194</v>
       </c>
       <c r="F47" t="n">
-        <v>19758.9474806221</v>
+        <v>19758.8267998991</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>10328</v>
       </c>
       <c r="I47" t="n">
-        <v>-923.6178727551</v>
+        <v>-266.005145896728</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>9637.10875142472</v>
+        <v>10353.6296332547</v>
       </c>
       <c r="C48" t="n">
-        <v>6627.93603115994</v>
+        <v>6643.54244232659</v>
       </c>
       <c r="D48" t="n">
-        <v>5260.01580167282</v>
+        <v>5260.03968461479</v>
       </c>
       <c r="E48" t="n">
-        <v>16191.0732732512</v>
+        <v>16191.0259548398</v>
       </c>
       <c r="F48" t="n">
-        <v>20543.8416101066</v>
+        <v>20543.6996499525</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>10065</v>
       </c>
       <c r="I48" t="n">
-        <v>-427.891248575284</v>
+        <v>288.629633254748</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>9783.35700871389</v>
+        <v>10490.326156452</v>
       </c>
       <c r="C49" t="n">
-        <v>6631.610732828</v>
+        <v>6688.14414452011</v>
       </c>
       <c r="D49" t="n">
-        <v>5277.55890359613</v>
+        <v>5277.58287890927</v>
       </c>
       <c r="E49" t="n">
-        <v>16512.2461551146</v>
+        <v>16512.1948684919</v>
       </c>
       <c r="F49" t="n">
-        <v>21024.737314399</v>
+        <v>21024.5819462959</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>9414</v>
       </c>
       <c r="I49" t="n">
-        <v>369.357008713891</v>
+        <v>1076.32615645203</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
